--- a/Models/MaterialCode逻辑.xlsx
+++ b/Models/MaterialCode逻辑.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\SteelRepository\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547A2142-4922-4C4A-BDDA-0D167D09F8B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532E9D54-9221-4F12-B730-F5B38DE1D6C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
   <si>
     <t>Code</t>
   </si>
@@ -430,7 +430,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -505,6 +505,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -525,6 +528,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -545,6 +551,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -565,6 +574,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -584,6 +596,9 @@
       </c>
       <c r="F7" t="s">
         <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
